--- a/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>146744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124158</v>
+        <v>125789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169564</v>
+        <v>168464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2131906709755258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1803770894445727</v>
+        <v>0.1827468262462398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2463423209282126</v>
+        <v>0.2447445048290099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>217</v>
@@ -765,19 +765,19 @@
         <v>218277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193407</v>
+        <v>192920</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>247280</v>
+        <v>245276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2276185572404607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2016842887088773</v>
+        <v>0.2011760263866166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.257863200219358</v>
+        <v>0.2557731996327604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>360</v>
@@ -786,19 +786,19 @@
         <v>365021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>334480</v>
+        <v>330968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>399459</v>
+        <v>397342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.221589800458061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2030492800188023</v>
+        <v>0.2009172866060042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2424953543781111</v>
+        <v>0.2412103475012627</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>541581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518761</v>
+        <v>519861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>564167</v>
+        <v>562536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7868093290244742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7536576790717888</v>
+        <v>0.75525549517099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8196229105554282</v>
+        <v>0.8172531737537601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>730</v>
@@ -836,19 +836,19 @@
         <v>740682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>711679</v>
+        <v>713683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>765552</v>
+        <v>766039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7723814427595393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.742136799780642</v>
+        <v>0.7442268003672395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7983157112911226</v>
+        <v>0.7988239736133834</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1282</v>
@@ -857,19 +857,19 @@
         <v>1282263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1247825</v>
+        <v>1249942</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1312804</v>
+        <v>1316316</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.778410199541939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.757504645621889</v>
+        <v>0.7587896524987373</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7969507199811977</v>
+        <v>0.7990827133939958</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>494928</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>463172</v>
+        <v>457406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>530194</v>
+        <v>531811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3765293654761308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3523700850994832</v>
+        <v>0.3479834520294592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4033588919251072</v>
+        <v>0.4045887196235337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>517</v>
@@ -982,19 +982,19 @@
         <v>531998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>493458</v>
+        <v>495346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>564466</v>
+        <v>567571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3874159609519871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3593500287892251</v>
+        <v>0.3607251937949315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4110600598674361</v>
+        <v>0.4133213400595584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1002</v>
@@ -1003,19 +1003,19 @@
         <v>1026926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>978969</v>
+        <v>977739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1082332</v>
+        <v>1075917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.38209164469997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3642481684180802</v>
+        <v>0.3637903758534364</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.402706703982871</v>
+        <v>0.4003199074943767</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>819520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>784254</v>
+        <v>782637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>851276</v>
+        <v>857042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6234706345238692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5966411080748929</v>
+        <v>0.5954112803764665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6476299149005168</v>
+        <v>0.6520165479705409</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>827</v>
@@ -1053,19 +1053,19 @@
         <v>841197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808729</v>
+        <v>805624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>879737</v>
+        <v>877849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.612584039048013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.588939940132564</v>
+        <v>0.5866786599404417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6406499712107752</v>
+        <v>0.6392748062050686</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1623</v>
@@ -1074,19 +1074,19 @@
         <v>1660717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1605311</v>
+        <v>1611726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1708674</v>
+        <v>1709904</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6179083553000301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5972932960171291</v>
+        <v>0.5996800925056233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6357518315819197</v>
+        <v>0.6362096241465636</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>143267</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123584</v>
+        <v>122942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165001</v>
+        <v>163839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3177161654866433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2740656142863344</v>
+        <v>0.2726409735288424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.365912808227776</v>
+        <v>0.3633374771357448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -1199,19 +1199,19 @@
         <v>128530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110247</v>
+        <v>109555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148746</v>
+        <v>148201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3144201365957885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2696960364215673</v>
+        <v>0.2680040067088836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3638760570454689</v>
+        <v>0.3625413159147159</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>262</v>
@@ -1220,19 +1220,19 @@
         <v>271797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>244916</v>
+        <v>243314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300761</v>
+        <v>300364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3161489412155072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2848815166415934</v>
+        <v>0.2830181183928918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3498387848196299</v>
+        <v>0.3493772665634705</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>307662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285928</v>
+        <v>287090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327345</v>
+        <v>327987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6822838345133567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6340871917722239</v>
+        <v>0.636662522864255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7259343857136656</v>
+        <v>0.7273590264711572</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1270,19 +1270,19 @@
         <v>280253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260037</v>
+        <v>260582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298536</v>
+        <v>299228</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6855798634042115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.636123942954531</v>
+        <v>0.6374586840852841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7303039635784326</v>
+        <v>0.7319959932911164</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>556</v>
@@ -1291,19 +1291,19 @@
         <v>587915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558951</v>
+        <v>559348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614796</v>
+        <v>616398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6838510587844928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6501612151803701</v>
+        <v>0.6506227334365295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7151184833584066</v>
+        <v>0.7169818816071082</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>784940</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3199003733839782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>856</v>
@@ -1416,19 +1416,19 @@
         <v>878804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3206218060028286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1624</v>
@@ -1437,19 +1437,19 @@
         <v>1663744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3202810353942074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1668761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1619763</v>
+        <v>1621788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1713537</v>
+        <v>1713615</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6800996266160219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6601303707891288</v>
+        <v>0.6609558315464227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6983480894815338</v>
+        <v>0.6983797861090353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1823</v>
@@ -1487,19 +1487,19 @@
         <v>1862133</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1810132</v>
+        <v>1809890</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1909457</v>
+        <v>1909394</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6793781939971715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6604063860119335</v>
+        <v>0.6603180268850276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6966439397773204</v>
+        <v>0.6966210515621647</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3461</v>
@@ -1508,19 +1508,19 @@
         <v>3530894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3460212</v>
+        <v>3464046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3602615</v>
+        <v>3597110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6797189646057926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6661122512843182</v>
+        <v>0.6668503608696886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.693525746927807</v>
+        <v>0.6924660446204505</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>150967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130935</v>
+        <v>130000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172766</v>
+        <v>174182</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1939896156864734</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1682491909739532</v>
+        <v>0.1670476600944024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2220016417202987</v>
+        <v>0.2238213505052312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>252</v>
@@ -1872,19 +1872,19 @@
         <v>267249</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240256</v>
+        <v>239453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>298293</v>
+        <v>300248</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2368538476110193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2129308358307978</v>
+        <v>0.2122191792492465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2643677131869828</v>
+        <v>0.2661004585682709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -1893,19 +1893,19 @@
         <v>418215</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>384021</v>
+        <v>377789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>456308</v>
+        <v>454692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2193573878065826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2014222652585327</v>
+        <v>0.1981537825990346</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2393376530504091</v>
+        <v>0.2384900514111113</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>627254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>605455</v>
+        <v>604039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>647286</v>
+        <v>648221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8060103843135266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7779983582797012</v>
+        <v>0.7761786494947688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8317508090260468</v>
+        <v>0.8329523399055975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>800</v>
@@ -1943,19 +1943,19 @@
         <v>861078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>830034</v>
+        <v>828079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>888071</v>
+        <v>888874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7631461523889808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7356322868130165</v>
+        <v>0.733899541431729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7870691641692018</v>
+        <v>0.7877808207507534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1385</v>
@@ -1964,19 +1964,19 @@
         <v>1488332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1450239</v>
+        <v>1451855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1522526</v>
+        <v>1528758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7806426121934175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7606623469495909</v>
+        <v>0.7615099485888888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7985777347414673</v>
+        <v>0.8018462174009654</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>581158</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>540447</v>
+        <v>539508</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>623716</v>
+        <v>617411</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3446053140606097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3204653002352656</v>
+        <v>0.3199083715975474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3698410386923688</v>
+        <v>0.3661025219371137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>501</v>
@@ -2089,19 +2089,19 @@
         <v>532442</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>495123</v>
+        <v>490349</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>571704</v>
+        <v>568797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3348107032824167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3113438064277986</v>
+        <v>0.3083418596874989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3594991037073221</v>
+        <v>0.3576712113386136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1051</v>
@@ -2110,19 +2110,19 @@
         <v>1113599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1060364</v>
+        <v>1055875</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1175630</v>
+        <v>1171532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3398517359168389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.323605085546404</v>
+        <v>0.3222351409669951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3587824581608423</v>
+        <v>0.3575318547599415</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1105286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1062728</v>
+        <v>1069033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1145997</v>
+        <v>1146936</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6553946859393903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6301589613076312</v>
+        <v>0.6338974780628861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6795346997647344</v>
+        <v>0.6800916284024525</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>976</v>
@@ -2160,19 +2160,19 @@
         <v>1057836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1018574</v>
+        <v>1021481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1095155</v>
+        <v>1099929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6651892967175833</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6405008962926779</v>
+        <v>0.6423287886613859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6886561935722014</v>
+        <v>0.6916581403125011</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2021</v>
@@ -2181,19 +2181,19 @@
         <v>2163122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2101091</v>
+        <v>2105189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2216357</v>
+        <v>2220846</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6601482640831611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6412175418391577</v>
+        <v>0.6424681452400586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6763949144535962</v>
+        <v>0.6777648590330049</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>142443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123041</v>
+        <v>122554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162799</v>
+        <v>164501</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3221706005268786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2782878044301443</v>
+        <v>0.2771882027840692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3682125353048262</v>
+        <v>0.3720612956196678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -2306,19 +2306,19 @@
         <v>111027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94174</v>
+        <v>91767</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132397</v>
+        <v>132386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2632210767624837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2232661033097969</v>
+        <v>0.2175601760906475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3138862668817404</v>
+        <v>0.313858472115912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -2327,19 +2327,19 @@
         <v>253469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229074</v>
+        <v>226598</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282246</v>
+        <v>282498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2933895674186633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2651516494581894</v>
+        <v>0.2622861271507061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3266983314294313</v>
+        <v>0.3269901491585814</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>299691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279335</v>
+        <v>277633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>319093</v>
+        <v>319580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6778293994731215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6317874646951737</v>
+        <v>0.6279387043803322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7217121955698551</v>
+        <v>0.7228117972159297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -2377,19 +2377,19 @@
         <v>310773</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289403</v>
+        <v>289414</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327626</v>
+        <v>330033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7367789232375164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6861137331182596</v>
+        <v>0.6861415278840879</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.776733896690203</v>
+        <v>0.7824398239093523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>549</v>
@@ -2398,19 +2398,19 @@
         <v>610465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>581688</v>
+        <v>581436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634860</v>
+        <v>637336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7066104325813366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6733016685705686</v>
+        <v>0.6730098508414184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7348483505418106</v>
+        <v>0.7377138728492938</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>874567</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>822858</v>
+        <v>823835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>926025</v>
+        <v>924338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3008694305168467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2830806747336218</v>
+        <v>0.2834168145857113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3185723533161389</v>
+        <v>0.3179918185658162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>855</v>
@@ -2523,19 +2523,19 @@
         <v>910717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>863957</v>
+        <v>854253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>971078</v>
+        <v>959209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2899999612216259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2751100039196176</v>
+        <v>0.2720200953358037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.309220489489893</v>
+        <v>0.3054411228093306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1683</v>
@@ -2544,19 +2544,19 @@
         <v>1785284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1715500</v>
+        <v>1715915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1858610</v>
+        <v>1856552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2952247495381686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2836848805021951</v>
+        <v>0.2837534291914222</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3073503052967509</v>
+        <v>0.3070100964916037</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2032231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1980773</v>
+        <v>1982460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2083940</v>
+        <v>2082963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6991305694831533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6814276466838611</v>
+        <v>0.6820081814341838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7169193252663781</v>
+        <v>0.7165831854142887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2055</v>
@@ -2594,19 +2594,19 @@
         <v>2229688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2169327</v>
+        <v>2181196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2276448</v>
+        <v>2286152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7100000387783741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6907795105101069</v>
+        <v>0.6945588771906693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7248899960803824</v>
+        <v>0.7279799046641962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3955</v>
@@ -2615,19 +2615,19 @@
         <v>4261919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4188593</v>
+        <v>4190651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4331703</v>
+        <v>4331288</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7047752504618314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6926496947032493</v>
+        <v>0.6929899035083963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7163151194978052</v>
+        <v>0.716246570808578</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>91513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75458</v>
+        <v>74938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109046</v>
+        <v>107524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2000639169597215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1649652215227636</v>
+        <v>0.163827853116671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2383938050201174</v>
+        <v>0.2350663407436754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -2979,19 +2979,19 @@
         <v>142605</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123793</v>
+        <v>121102</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164590</v>
+        <v>166271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2232128089345628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1937677346132906</v>
+        <v>0.1895553923048639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2576250563696508</v>
+        <v>0.2602559862022105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -3000,19 +3000,19 @@
         <v>234118</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207926</v>
+        <v>205989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260395</v>
+        <v>262222</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2135541284148791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1896626063405914</v>
+        <v>0.1878963438033556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2375236224460648</v>
+        <v>0.2391897782935802</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>365906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348373</v>
+        <v>349895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381961</v>
+        <v>382481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7999360830402785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7616061949798829</v>
+        <v>0.7649336592563252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8350347784772364</v>
+        <v>0.836172146883329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>449</v>
@@ -3050,19 +3050,19 @@
         <v>496269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>474284</v>
+        <v>472603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>515081</v>
+        <v>517772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7767871910654373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7423749436303492</v>
+        <v>0.7397440137977894</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8062322653867094</v>
+        <v>0.810444607695136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>818</v>
@@ -3071,19 +3071,19 @@
         <v>862175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>835898</v>
+        <v>834071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>888367</v>
+        <v>890304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7864458715851209</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7624763775539349</v>
+        <v>0.7608102217064201</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8103373936594086</v>
+        <v>0.8121036561966445</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>514516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>476169</v>
+        <v>477016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>558438</v>
+        <v>559399</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3032621211768268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2806601104795202</v>
+        <v>0.2811594312476768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3291500349681825</v>
+        <v>0.3297168905741248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>481</v>
@@ -3196,19 +3196,19 @@
         <v>494867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>459120</v>
+        <v>458450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>535193</v>
+        <v>534529</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2896130470451075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2686923659188697</v>
+        <v>0.2683001228036716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.313212833627263</v>
+        <v>0.3128242403269549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>964</v>
@@ -3217,19 +3217,19 @@
         <v>1009383</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>959814</v>
+        <v>952306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1069665</v>
+        <v>1062260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.296413307625239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2818568437670309</v>
+        <v>0.279651977845068</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3141154391782773</v>
+        <v>0.3119409517900593</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1182089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1138167</v>
+        <v>1137206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1220436</v>
+        <v>1219589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6967378788231732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6708499650318174</v>
+        <v>0.6702831094258749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7193398895204799</v>
+        <v>0.7188405687523232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1165</v>
@@ -3267,19 +3267,19 @@
         <v>1213852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1173526</v>
+        <v>1174190</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1249599</v>
+        <v>1250269</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7103869529548924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6867871663727374</v>
+        <v>0.6871757596730452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7313076340811302</v>
+        <v>0.7316998771963285</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2281</v>
@@ -3288,19 +3288,19 @@
         <v>2395941</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2335659</v>
+        <v>2343064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2445510</v>
+        <v>2453018</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.703586692374761</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6858845608217228</v>
+        <v>0.688059048209941</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7181431562329692</v>
+        <v>0.720348022154932</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>126599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107183</v>
+        <v>107049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148195</v>
+        <v>149389</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2535808515090814</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.214691411985667</v>
+        <v>0.2144225234759091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2968379367374429</v>
+        <v>0.29923068090584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -3413,19 +3413,19 @@
         <v>111036</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93069</v>
+        <v>92805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128822</v>
+        <v>131455</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2184375916743053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1830919982400441</v>
+        <v>0.1825714196489345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2534271305995208</v>
+        <v>0.2586060656115014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -3434,19 +3434,19 @@
         <v>237635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210459</v>
+        <v>213088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264700</v>
+        <v>265414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2358509493702407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2088794118666772</v>
+        <v>0.2114886543893296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2627131332542202</v>
+        <v>0.2634217198028952</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>372645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351049</v>
+        <v>349855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392061</v>
+        <v>392195</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7464191484909186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7031620632625571</v>
+        <v>0.7007693190941594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.785308588014333</v>
+        <v>0.7855774765240908</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>377</v>
@@ -3484,19 +3484,19 @@
         <v>397284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>379498</v>
+        <v>376865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>415251</v>
+        <v>415515</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7815624083256947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7465728694004793</v>
+        <v>0.7413939343884987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.816908001759956</v>
+        <v>0.8174285803510655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>722</v>
@@ -3505,19 +3505,19 @@
         <v>769929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>742864</v>
+        <v>742150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>797105</v>
+        <v>794476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7641490506297592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7372868667457796</v>
+        <v>0.7365782801971049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7911205881333226</v>
+        <v>0.7885113456106705</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>732628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>688174</v>
+        <v>689172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>782813</v>
+        <v>783410</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2761227911913413</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2593683947460998</v>
+        <v>0.2597444438338453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2950369916228536</v>
+        <v>0.2952622863366111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>725</v>
@@ -3630,19 +3630,19 @@
         <v>748508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>701677</v>
+        <v>701978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>797813</v>
+        <v>797262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2620907450788387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2456928475144984</v>
+        <v>0.2457979796536859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2793548063242163</v>
+        <v>0.2791617776134167</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1414</v>
@@ -3651,19 +3651,19 @@
         <v>1481136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1421751</v>
+        <v>1418518</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1551588</v>
+        <v>1546284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2688486981296354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.258069335191065</v>
+        <v>0.2574825102311364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2816366441128219</v>
+        <v>0.2806740213320496</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1920641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1870456</v>
+        <v>1869859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1965095</v>
+        <v>1964097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7238772088086587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7049630083771466</v>
+        <v>0.7047377136633889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7406316052539005</v>
+        <v>0.7402555561661548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1991</v>
@@ -3701,19 +3701,19 @@
         <v>2107405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2058100</v>
+        <v>2058651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2154236</v>
+        <v>2153935</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7379092549211613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7206451936757836</v>
+        <v>0.7208382223865832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7543071524855015</v>
+        <v>0.7542020203463139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3821</v>
@@ -3722,19 +3722,19 @@
         <v>4028046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3957594</v>
+        <v>3962898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4087431</v>
+        <v>4090664</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7311513018703646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7183633558871781</v>
+        <v>0.7193259786679506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.741930664808935</v>
+        <v>0.742517489768864</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>83653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68074</v>
+        <v>67280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102403</v>
+        <v>103000</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1560464109186714</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1269849903513466</v>
+        <v>0.1255032713793608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1910219292117499</v>
+        <v>0.1921348496676316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -4086,19 +4086,19 @@
         <v>114116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97534</v>
+        <v>98225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130236</v>
+        <v>128842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1454457868791269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1243119532481391</v>
+        <v>0.125192773600508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1659925323788413</v>
+        <v>0.1642152278153201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -4107,19 +4107,19 @@
         <v>197769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175969</v>
+        <v>174577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222940</v>
+        <v>222699</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1497487344158849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1332420369351061</v>
+        <v>0.1321881877786732</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1688083198798125</v>
+        <v>0.1686251570924614</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>452427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>433677</v>
+        <v>433080</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468006</v>
+        <v>468800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8439535890813287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.80897807078825</v>
+        <v>0.8078651503323683</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8730150096486535</v>
+        <v>0.8744967286206392</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1188</v>
@@ -4157,19 +4157,19 @@
         <v>670476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>654356</v>
+        <v>655750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>687058</v>
+        <v>686367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8545542131208731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8340074676211587</v>
+        <v>0.8357847721846802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.875688046751861</v>
+        <v>0.8748072263994918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1750</v>
@@ -4178,19 +4178,19 @@
         <v>1122903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1097732</v>
+        <v>1097973</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1144703</v>
+        <v>1146095</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8502512655841151</v>
+        <v>0.8502512655841153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8311916801201872</v>
+        <v>0.8313748429075387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8667579630648938</v>
+        <v>0.8678118122213268</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>452081</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>405889</v>
+        <v>405179</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>497291</v>
+        <v>497268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2106151590292216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1890952212701029</v>
+        <v>0.1887644591745092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2316777766417858</v>
+        <v>0.2316670808514043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>556</v>
@@ -4303,19 +4303,19 @@
         <v>407658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>374915</v>
+        <v>373197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>441169</v>
+        <v>439856</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1932096221897712</v>
+        <v>0.1932096221897713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1776912831276276</v>
+        <v>0.1768768293488945</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2090922680432207</v>
+        <v>0.2084701703868621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>934</v>
@@ -4324,19 +4324,19 @@
         <v>859738</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>806128</v>
+        <v>812474</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>919198</v>
+        <v>920457</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2019871315537556</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1893919336251297</v>
+        <v>0.1908828054244324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2159566172853682</v>
+        <v>0.2162524462069369</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1694397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1649187</v>
+        <v>1649210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1740589</v>
+        <v>1741299</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7893848409707784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7683222233582144</v>
+        <v>0.7683329191485958</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8109047787298971</v>
+        <v>0.8112355408254908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2292</v>
@@ -4374,19 +4374,19 @@
         <v>1702266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1668755</v>
+        <v>1670068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1735009</v>
+        <v>1736727</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8067903778102288</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7909077319567793</v>
+        <v>0.7915298296131379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8223087168723724</v>
+        <v>0.8231231706511056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3837</v>
@@ -4395,19 +4395,19 @@
         <v>3396664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3337204</v>
+        <v>3335945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3450274</v>
+        <v>3443928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7980128684462444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.784043382714632</v>
+        <v>0.7837475537930637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8106080663748705</v>
+        <v>0.8091171945755675</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>112711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90877</v>
+        <v>92396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135239</v>
+        <v>137475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1605938297485438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1294833333444622</v>
+        <v>0.1316477534759125</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1926916876734181</v>
+        <v>0.1958781322279792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -4520,19 +4520,19 @@
         <v>141590</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123109</v>
+        <v>124297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162246</v>
+        <v>161427</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1954553569662426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.169943023028627</v>
+        <v>0.171582651972817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2239688031547772</v>
+        <v>0.2228380015231852</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>307</v>
@@ -4541,19 +4541,19 @@
         <v>254302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225500</v>
+        <v>227288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284194</v>
+        <v>285552</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1783004542804449</v>
+        <v>0.1783004542804448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.158106575805763</v>
+        <v>0.1593602815574819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1992587698467411</v>
+        <v>0.2002110374100173</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>589130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>566602</v>
+        <v>564366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610964</v>
+        <v>609445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.839406170251456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.807308312326582</v>
+        <v>0.8041218677720211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8705166666555377</v>
+        <v>0.8683522465240876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>786</v>
@@ -4591,19 +4591,19 @@
         <v>582823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562167</v>
+        <v>562986</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>601304</v>
+        <v>600116</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8045446430337574</v>
+        <v>0.8045446430337573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7760311968452234</v>
+        <v>0.7771619984768149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8300569769713732</v>
+        <v>0.8284173480271831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1351</v>
@@ -4612,19 +4612,19 @@
         <v>1171952</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1142060</v>
+        <v>1140702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200754</v>
+        <v>1198966</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8216995457195551</v>
+        <v>0.8216995457195552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8007412301532592</v>
+        <v>0.7997889625899827</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8418934241942371</v>
+        <v>0.8406397184425181</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>648446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>594054</v>
+        <v>598918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>701358</v>
+        <v>703972</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1915984208707504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.175527040479659</v>
+        <v>0.1769644035844695</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2072326191428308</v>
+        <v>0.2080049614784887</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>940</v>
@@ -4737,19 +4737,19 @@
         <v>663364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>623867</v>
+        <v>621368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>705030</v>
+        <v>707404</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1833038493619464</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1723900754884199</v>
+        <v>0.1716994056675896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1948173932407379</v>
+        <v>0.1954733179772848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1508</v>
@@ -4758,19 +4758,19 @@
         <v>1311809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1240882</v>
+        <v>1243357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1382524</v>
+        <v>1373441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1873122496956783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1771845520226344</v>
+        <v>0.17753800566091</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1974095953571948</v>
+        <v>0.1961125754460987</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2735954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2683042</v>
+        <v>2680428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2790346</v>
+        <v>2785482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8084015791292497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7927673808571694</v>
+        <v>0.7919950385215117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8244729595203413</v>
+        <v>0.8230355964155307</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4266</v>
@@ -4808,19 +4808,19 @@
         <v>2955565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2913899</v>
+        <v>2911525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2995062</v>
+        <v>2997561</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8166961506380537</v>
+        <v>0.8166961506380535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8051826067592622</v>
+        <v>0.804526682022715</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8276099245115804</v>
+        <v>0.8283005943324104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6938</v>
@@ -4829,19 +4829,19 @@
         <v>5691520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5620805</v>
+        <v>5629888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5762447</v>
+        <v>5759972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8126877503043217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8025904046428054</v>
+        <v>0.8038874245539015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8228154479773658</v>
+        <v>0.82246199433909</v>
       </c>
     </row>
     <row r="15">
